--- a/Tesis/Resultados/Escalon/AC/SENTADO_Izquierdo_layer_0.xlsx
+++ b/Tesis/Resultados/Escalon/AC/SENTADO_Izquierdo_layer_0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
   <si>
     <t>W_i</t>
   </si>
@@ -31,76 +31,124 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[0.37781858444213867]</t>
-  </si>
-  <si>
-    <t>[-0.27097034454345703]</t>
-  </si>
-  <si>
-    <t>[-0.10206837952136993]</t>
-  </si>
-  <si>
-    <t>[0.2120136022567749]</t>
-  </si>
-  <si>
-    <t>[0.7612857818603516]</t>
-  </si>
-  <si>
-    <t>[-0.06722117960453033]</t>
-  </si>
-  <si>
-    <t>[-0.18241345882415771]</t>
-  </si>
-  <si>
-    <t>[0.39786818623542786]</t>
-  </si>
-  <si>
-    <t>[0.6322786808013916]</t>
-  </si>
-  <si>
-    <t>[-0.14872437715530396]</t>
-  </si>
-  <si>
-    <t>[0.2841249704360962]</t>
-  </si>
-  <si>
-    <t>[0.5532981753349304]</t>
-  </si>
-  <si>
-    <t>[0.36046916246414185]</t>
-  </si>
-  <si>
-    <t>[0.5269973874092102]</t>
-  </si>
-  <si>
-    <t>[0.6906065344810486]</t>
-  </si>
-  <si>
-    <t>[-0.3682178556919098]</t>
-  </si>
-  <si>
-    <t>[-0.3820648193359375]</t>
-  </si>
-  <si>
-    <t>[0.6048336029052734]</t>
-  </si>
-  <si>
-    <t>[0.49806320667266846]</t>
-  </si>
-  <si>
-    <t>[0.3099680542945862]</t>
-  </si>
-  <si>
-    <t>[-0.4501601755619049]</t>
-  </si>
-  <si>
-    <t>[0.22266928851604462]</t>
-  </si>
-  <si>
-    <t>[-0.2859555184841156]</t>
-  </si>
-  <si>
-    <t>[0.5405601859092712]</t>
+    <t>[0.22443345189094543]</t>
+  </si>
+  <si>
+    <t>[0.12982967495918274]</t>
+  </si>
+  <si>
+    <t>[0.5746182203292847]</t>
+  </si>
+  <si>
+    <t>[0.5436374545097351]</t>
+  </si>
+  <si>
+    <t>[-0.2716962695121765]</t>
+  </si>
+  <si>
+    <t>[0.3972640037536621]</t>
+  </si>
+  <si>
+    <t>[0.43126609921455383]</t>
+  </si>
+  <si>
+    <t>[-0.0658646896481514]</t>
+  </si>
+  <si>
+    <t>[0.33327290415763855]</t>
+  </si>
+  <si>
+    <t>[0.44684672355651855]</t>
+  </si>
+  <si>
+    <t>[0.6136478781700134]</t>
+  </si>
+  <si>
+    <t>[0.30545249581336975]</t>
+  </si>
+  <si>
+    <t>[-0.3856804370880127]</t>
+  </si>
+  <si>
+    <t>[0.5093282461166382]</t>
+  </si>
+  <si>
+    <t>[-0.5223128795623779]</t>
+  </si>
+  <si>
+    <t>[0.5363224744796753]</t>
+  </si>
+  <si>
+    <t>[-0.5395109057426453]</t>
+  </si>
+  <si>
+    <t>[0.3631756901741028]</t>
+  </si>
+  <si>
+    <t>[-0.2921585738658905]</t>
+  </si>
+  <si>
+    <t>[-0.3255099952220917]</t>
+  </si>
+  <si>
+    <t>[-0.2985633909702301]</t>
+  </si>
+  <si>
+    <t>[0.1749693900346756]</t>
+  </si>
+  <si>
+    <t>[0.14682264626026154]</t>
+  </si>
+  <si>
+    <t>[0.4991989731788635]</t>
+  </si>
+  <si>
+    <t>[-0.5895174741744995]</t>
+  </si>
+  <si>
+    <t>[0.01314090471714735]</t>
+  </si>
+  <si>
+    <t>[0.3490303158760071]</t>
+  </si>
+  <si>
+    <t>[-0.34416136145591736]</t>
+  </si>
+  <si>
+    <t>[0.07699089497327805]</t>
+  </si>
+  <si>
+    <t>[-0.08775317668914795]</t>
+  </si>
+  <si>
+    <t>[-0.02096685580909252]</t>
+  </si>
+  <si>
+    <t>[-0.3305647373199463]</t>
+  </si>
+  <si>
+    <t>[-0.3957706391811371]</t>
+  </si>
+  <si>
+    <t>[0.01483397837728262]</t>
+  </si>
+  <si>
+    <t>[0.4942384362220764]</t>
+  </si>
+  <si>
+    <t>[0.21756230294704437]</t>
+  </si>
+  <si>
+    <t>[0.33566513657569885]</t>
+  </si>
+  <si>
+    <t>[0.4116683006286621]</t>
+  </si>
+  <si>
+    <t>[-0.3172031342983246]</t>
+  </si>
+  <si>
+    <t>[-0.383563369512558]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -115,436 +163,1204 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[-0.23304283618927002]</t>
-  </si>
-  <si>
-    <t>[0.160580575466156]</t>
-  </si>
-  <si>
-    <t>[0.31845545768737793]</t>
-  </si>
-  <si>
-    <t>[-0.16426922380924225]</t>
-  </si>
-  <si>
-    <t>[-0.025487694889307022]</t>
-  </si>
-  <si>
-    <t>[0.02471279352903366]</t>
-  </si>
-  <si>
-    <t>[0.15999604761600494]</t>
-  </si>
-  <si>
-    <t>[0.010082010179758072]</t>
-  </si>
-  <si>
-    <t>[-0.2876730263233185]</t>
-  </si>
-  <si>
-    <t>[-0.2557747960090637]</t>
-  </si>
-  <si>
-    <t>[0.32218679785728455]</t>
-  </si>
-  <si>
-    <t>[-0.13404963910579681]</t>
-  </si>
-  <si>
-    <t>[0.2269183099269867]</t>
-  </si>
-  <si>
-    <t>[0.0694701075553894]</t>
-  </si>
-  <si>
-    <t>[-0.2283276468515396]</t>
-  </si>
-  <si>
-    <t>[-0.04981803521513939]</t>
-  </si>
-  <si>
-    <t>[0.165930837392807]</t>
-  </si>
-  <si>
-    <t>[-0.10378321260213852]</t>
-  </si>
-  <si>
-    <t>[0.08811762928962708]</t>
-  </si>
-  <si>
-    <t>[0.024901896715164185]</t>
-  </si>
-  <si>
-    <t>[-0.19306454062461853]</t>
-  </si>
-  <si>
-    <t>[-0.06027533859014511]</t>
-  </si>
-  <si>
-    <t>[0.6954345107078552]</t>
-  </si>
-  <si>
-    <t>[0.03035150095820427]</t>
-  </si>
-  <si>
-    <t>[0.21559590101242065]</t>
-  </si>
-  <si>
-    <t>[-0.2706602215766907]</t>
-  </si>
-  <si>
-    <t>[-0.3671806752681732]</t>
-  </si>
-  <si>
-    <t>[0.12935113906860352]</t>
-  </si>
-  <si>
-    <t>[-0.231224924325943]</t>
-  </si>
-  <si>
-    <t>[0.1654810905456543]</t>
-  </si>
-  <si>
-    <t>[-0.13903209567070007]</t>
-  </si>
-  <si>
-    <t>[-0.08276807516813278]</t>
-  </si>
-  <si>
-    <t>[-0.1628340482711792]</t>
-  </si>
-  <si>
-    <t>[-0.2962036430835724]</t>
-  </si>
-  <si>
-    <t>[-0.32080361247062683]</t>
-  </si>
-  <si>
-    <t>[0.20777800679206848]</t>
-  </si>
-  <si>
-    <t>[-0.5896177887916565]</t>
-  </si>
-  <si>
-    <t>[-0.20708253979682922]</t>
-  </si>
-  <si>
-    <t>[-0.13314667344093323]</t>
-  </si>
-  <si>
-    <t>[0.04342300072312355]</t>
-  </si>
-  <si>
-    <t>[0.2117796242237091]</t>
-  </si>
-  <si>
-    <t>[-0.1377708464860916]</t>
-  </si>
-  <si>
-    <t>[0.2347898781299591]</t>
-  </si>
-  <si>
-    <t>[0.2641344666481018]</t>
-  </si>
-  <si>
-    <t>[0.0933137908577919]</t>
-  </si>
-  <si>
-    <t>[-0.24957211315631866]</t>
-  </si>
-  <si>
-    <t>[0.17162087559700012]</t>
-  </si>
-  <si>
-    <t>[-0.3424649238586426]</t>
-  </si>
-  <si>
-    <t>[-0.05901570990681648]</t>
-  </si>
-  <si>
-    <t>[-0.03863416612148285]</t>
-  </si>
-  <si>
-    <t>[0.37932902574539185]</t>
-  </si>
-  <si>
-    <t>[0.12160993367433548]</t>
-  </si>
-  <si>
-    <t>[0.2704096734523773]</t>
-  </si>
-  <si>
-    <t>[0.07386168837547302]</t>
-  </si>
-  <si>
-    <t>[-0.06994487345218658]</t>
-  </si>
-  <si>
-    <t>[0.38151150941848755]</t>
-  </si>
-  <si>
-    <t>[-0.06876704096794128]</t>
-  </si>
-  <si>
-    <t>[0.1729879528284073]</t>
-  </si>
-  <si>
-    <t>[0.32887348532676697]</t>
-  </si>
-  <si>
-    <t>[0.11056362837553024]</t>
-  </si>
-  <si>
-    <t>[0.509976863861084]</t>
-  </si>
-  <si>
-    <t>[0.4430020749568939]</t>
-  </si>
-  <si>
-    <t>[0.503527045249939]</t>
-  </si>
-  <si>
-    <t>[-0.0024970625527203083]</t>
-  </si>
-  <si>
-    <t>[-0.17666471004486084]</t>
-  </si>
-  <si>
-    <t>[0.572409987449646]</t>
-  </si>
-  <si>
-    <t>[0.304068386554718]</t>
-  </si>
-  <si>
-    <t>[-0.29874125123023987]</t>
-  </si>
-  <si>
-    <t>[-0.6739032864570618]</t>
-  </si>
-  <si>
-    <t>[0.07859250158071518]</t>
-  </si>
-  <si>
-    <t>[-0.1796112358570099]</t>
-  </si>
-  <si>
-    <t>[-0.20037734508514404]</t>
-  </si>
-  <si>
-    <t>[0.22996026277542114]</t>
-  </si>
-  <si>
-    <t>[-0.228511780500412]</t>
-  </si>
-  <si>
-    <t>[-0.43508321046829224]</t>
-  </si>
-  <si>
-    <t>[0.49174124002456665]</t>
-  </si>
-  <si>
-    <t>[-0.7528400421142578]</t>
-  </si>
-  <si>
-    <t>[-0.05516389384865761]</t>
-  </si>
-  <si>
-    <t>[0.12270507961511612]</t>
-  </si>
-  <si>
-    <t>[-0.18164251744747162]</t>
-  </si>
-  <si>
-    <t>[-0.19353227317333221]</t>
-  </si>
-  <si>
-    <t>[-0.18391932547092438]</t>
-  </si>
-  <si>
-    <t>[-0.17651429772377014]</t>
-  </si>
-  <si>
-    <t>[0.05990462377667427]</t>
-  </si>
-  <si>
-    <t>[-0.041927024722099304]</t>
-  </si>
-  <si>
-    <t>[-0.4536270201206207]</t>
-  </si>
-  <si>
-    <t>[-0.21354176104068756]</t>
-  </si>
-  <si>
-    <t>[0.10118957608938217]</t>
-  </si>
-  <si>
-    <t>[0.42165783047676086]</t>
-  </si>
-  <si>
-    <t>[-0.5082858800888062]</t>
-  </si>
-  <si>
-    <t>[-0.5776801109313965]</t>
-  </si>
-  <si>
-    <t>[0.22607554495334625]</t>
-  </si>
-  <si>
-    <t>[0.34404993057250977]</t>
-  </si>
-  <si>
-    <t>[0.018504174426198006]</t>
-  </si>
-  <si>
-    <t>[-0.06639222055673599]</t>
-  </si>
-  <si>
-    <t>[-0.5240085124969482]</t>
-  </si>
-  <si>
-    <t>[0.5562211275100708]</t>
-  </si>
-  <si>
-    <t>[0.05915094166994095]</t>
-  </si>
-  <si>
-    <t>[-0.664680004119873]</t>
-  </si>
-  <si>
-    <t>[0.27017340064048767]</t>
-  </si>
-  <si>
-    <t>[-0.31654077768325806]</t>
-  </si>
-  <si>
-    <t>[-0.06539499014616013]</t>
-  </si>
-  <si>
-    <t>[0.0658702403306961]</t>
-  </si>
-  <si>
-    <t>[-0.0988987535238266]</t>
-  </si>
-  <si>
-    <t>[-0.14569762349128723]</t>
-  </si>
-  <si>
-    <t>[-0.10670021176338196]</t>
-  </si>
-  <si>
-    <t>[-0.3254087567329407]</t>
-  </si>
-  <si>
-    <t>[-0.26155099272727966]</t>
-  </si>
-  <si>
-    <t>[-0.4032976031303406]</t>
-  </si>
-  <si>
-    <t>[-0.3986838757991791]</t>
-  </si>
-  <si>
-    <t>[-0.4804936945438385]</t>
-  </si>
-  <si>
-    <t>[-0.03701196238398552]</t>
-  </si>
-  <si>
-    <t>[0.6050043106079102]</t>
-  </si>
-  <si>
-    <t>[-0.2599964737892151]</t>
-  </si>
-  <si>
-    <t>[-0.20739004015922546]</t>
-  </si>
-  <si>
-    <t>[-0.5485416650772095]</t>
-  </si>
-  <si>
-    <t>[0.3171757161617279]</t>
-  </si>
-  <si>
-    <t>[-0.1412794440984726]</t>
-  </si>
-  <si>
-    <t>[0.42825034260749817]</t>
-  </si>
-  <si>
-    <t>[-0.1519211232662201]</t>
-  </si>
-  <si>
-    <t>[0.06982290744781494]</t>
-  </si>
-  <si>
-    <t>[-0.29315492510795593]</t>
-  </si>
-  <si>
-    <t>[0.08255130052566528]</t>
-  </si>
-  <si>
-    <t>[-0.2982296645641327]</t>
-  </si>
-  <si>
-    <t>[0.42322584986686707]</t>
-  </si>
-  <si>
-    <t>[-0.021118363365530968]</t>
-  </si>
-  <si>
-    <t>[0.39425405859947205]</t>
-  </si>
-  <si>
-    <t>[0.3331233859062195]</t>
-  </si>
-  <si>
-    <t>[0.39951568841934204]</t>
-  </si>
-  <si>
-    <t>[-0.07321275025606155]</t>
-  </si>
-  <si>
-    <t>[0.06575167179107666]</t>
-  </si>
-  <si>
-    <t>[0.194472998380661]</t>
-  </si>
-  <si>
-    <t>[0.494381308555603]</t>
-  </si>
-  <si>
-    <t>[0.09067253768444061]</t>
-  </si>
-  <si>
-    <t>[0.3090088367462158]</t>
-  </si>
-  <si>
-    <t>[-0.2982593774795532]</t>
-  </si>
-  <si>
-    <t>[-0.5059414505958557]</t>
-  </si>
-  <si>
-    <t>[0.30545246601104736]</t>
-  </si>
-  <si>
-    <t>[0.17049908638000488]</t>
-  </si>
-  <si>
-    <t>[0.165999636054039]</t>
-  </si>
-  <si>
-    <t>[-0.2924940586090088]</t>
-  </si>
-  <si>
-    <t>[0.02581814117729664]</t>
-  </si>
-  <si>
-    <t>[-0.14744620025157928]</t>
-  </si>
-  <si>
-    <t>[0.2822751998901367]</t>
+    <t>[0.345052570104599]</t>
+  </si>
+  <si>
+    <t>[0.11079350858926773]</t>
+  </si>
+  <si>
+    <t>[-0.09573814272880554]</t>
+  </si>
+  <si>
+    <t>[0.37566107511520386]</t>
+  </si>
+  <si>
+    <t>[-0.10036031901836395]</t>
+  </si>
+  <si>
+    <t>[0.21439994871616364]</t>
+  </si>
+  <si>
+    <t>[0.13459299504756927]</t>
+  </si>
+  <si>
+    <t>[0.07519866526126862]</t>
+  </si>
+  <si>
+    <t>[-0.18066291511058807]</t>
+  </si>
+  <si>
+    <t>[0.07835200428962708]</t>
+  </si>
+  <si>
+    <t>[0.166351780295372]</t>
+  </si>
+  <si>
+    <t>[0.03876592218875885]</t>
+  </si>
+  <si>
+    <t>[-0.16102872788906097]</t>
+  </si>
+  <si>
+    <t>[0.34363967180252075]</t>
+  </si>
+  <si>
+    <t>[-0.36984097957611084]</t>
+  </si>
+  <si>
+    <t>[-0.06839864701032639]</t>
+  </si>
+  <si>
+    <t>[-0.17003661394119263]</t>
+  </si>
+  <si>
+    <t>[-0.08949557691812515]</t>
+  </si>
+  <si>
+    <t>[-0.11203601956367493]</t>
+  </si>
+  <si>
+    <t>[0.06728844344615936]</t>
+  </si>
+  <si>
+    <t>[-0.07772861421108246]</t>
+  </si>
+  <si>
+    <t>[0.03298696503043175]</t>
+  </si>
+  <si>
+    <t>[-0.19380474090576172]</t>
+  </si>
+  <si>
+    <t>[0.4932467043399811]</t>
+  </si>
+  <si>
+    <t>[-0.16616709530353546]</t>
+  </si>
+  <si>
+    <t>[0.2525007128715515]</t>
+  </si>
+  <si>
+    <t>[0.1857934594154358]</t>
+  </si>
+  <si>
+    <t>[-0.35824254155158997]</t>
+  </si>
+  <si>
+    <t>[-0.014503245241940022]</t>
+  </si>
+  <si>
+    <t>[0.057773638516664505]</t>
+  </si>
+  <si>
+    <t>[0.24679267406463623]</t>
+  </si>
+  <si>
+    <t>[-0.1479610651731491]</t>
+  </si>
+  <si>
+    <t>[-0.19106043875217438]</t>
+  </si>
+  <si>
+    <t>[0.2987831234931946]</t>
+  </si>
+  <si>
+    <t>[-0.04481148347258568]</t>
+  </si>
+  <si>
+    <t>[0.0950910821557045]</t>
+  </si>
+  <si>
+    <t>[0.17641428112983704]</t>
+  </si>
+  <si>
+    <t>[0.32115939259529114]</t>
+  </si>
+  <si>
+    <t>[-0.3438303470611572]</t>
+  </si>
+  <si>
+    <t>[-0.29358983039855957]</t>
+  </si>
+  <si>
+    <t>[0.28149285912513733]</t>
+  </si>
+  <si>
+    <t>[0.14171867072582245]</t>
+  </si>
+  <si>
+    <t>[0.027035757899284363]</t>
+  </si>
+  <si>
+    <t>[0.1414710134267807]</t>
+  </si>
+  <si>
+    <t>[-0.1818351447582245]</t>
+  </si>
+  <si>
+    <t>[0.08660848438739777]</t>
+  </si>
+  <si>
+    <t>[-0.024493074044585228]</t>
+  </si>
+  <si>
+    <t>[-0.2842857241630554]</t>
+  </si>
+  <si>
+    <t>[0.23024342954158783]</t>
+  </si>
+  <si>
+    <t>[0.40332862734794617]</t>
+  </si>
+  <si>
+    <t>[0.18990878760814667]</t>
+  </si>
+  <si>
+    <t>[-0.006920712534338236]</t>
+  </si>
+  <si>
+    <t>[-0.11705408990383148]</t>
+  </si>
+  <si>
+    <t>[0.024758601561188698]</t>
+  </si>
+  <si>
+    <t>[-0.36607253551483154]</t>
+  </si>
+  <si>
+    <t>[-0.07912112027406693]</t>
+  </si>
+  <si>
+    <t>[-0.1012943908572197]</t>
+  </si>
+  <si>
+    <t>[0.2658019959926605]</t>
+  </si>
+  <si>
+    <t>[-0.42395660281181335]</t>
+  </si>
+  <si>
+    <t>[-0.5047282576560974]</t>
+  </si>
+  <si>
+    <t>[0.12369728833436966]</t>
+  </si>
+  <si>
+    <t>[0.20910842716693878]</t>
+  </si>
+  <si>
+    <t>[0.07208941131830215]</t>
+  </si>
+  <si>
+    <t>[0.43684983253479004]</t>
+  </si>
+  <si>
+    <t>[-0.08503729850053787]</t>
+  </si>
+  <si>
+    <t>[0.21827824413776398]</t>
+  </si>
+  <si>
+    <t>[0.06487497687339783]</t>
+  </si>
+  <si>
+    <t>[-0.019277598708868027]</t>
+  </si>
+  <si>
+    <t>[0.04629317671060562]</t>
+  </si>
+  <si>
+    <t>[0.2816096544265747]</t>
+  </si>
+  <si>
+    <t>[-0.18445652723312378]</t>
+  </si>
+  <si>
+    <t>[-0.25496721267700195]</t>
+  </si>
+  <si>
+    <t>[-0.2584342956542969]</t>
+  </si>
+  <si>
+    <t>[0.10725511610507965]</t>
+  </si>
+  <si>
+    <t>[0.14754386246204376]</t>
+  </si>
+  <si>
+    <t>[0.18997418880462646]</t>
+  </si>
+  <si>
+    <t>[0.31747692823410034]</t>
+  </si>
+  <si>
+    <t>[0.16182343661785126]</t>
+  </si>
+  <si>
+    <t>[-0.3529202342033386]</t>
+  </si>
+  <si>
+    <t>[-0.09597283601760864]</t>
+  </si>
+  <si>
+    <t>[0.44241759181022644]</t>
+  </si>
+  <si>
+    <t>[0.18348556756973267]</t>
+  </si>
+  <si>
+    <t>[-0.01795947179198265]</t>
+  </si>
+  <si>
+    <t>[0.15995971858501434]</t>
+  </si>
+  <si>
+    <t>[-0.2489594668149948]</t>
+  </si>
+  <si>
+    <t>[0.12639497220516205]</t>
+  </si>
+  <si>
+    <t>[0.21391375362873077]</t>
+  </si>
+  <si>
+    <t>[-0.17164015769958496]</t>
+  </si>
+  <si>
+    <t>[0.14966969192028046]</t>
+  </si>
+  <si>
+    <t>[0.5273326635360718]</t>
+  </si>
+  <si>
+    <t>[0.3126748204231262]</t>
+  </si>
+  <si>
+    <t>[0.21701620519161224]</t>
+  </si>
+  <si>
+    <t>[-0.11048351228237152]</t>
+  </si>
+  <si>
+    <t>[0.33093443512916565]</t>
+  </si>
+  <si>
+    <t>[-0.3407677412033081]</t>
+  </si>
+  <si>
+    <t>[0.49977409839630127]</t>
+  </si>
+  <si>
+    <t>[-0.3650573194026947]</t>
+  </si>
+  <si>
+    <t>[0.38668739795684814]</t>
+  </si>
+  <si>
+    <t>[-0.24484382569789886]</t>
+  </si>
+  <si>
+    <t>[-0.12005066871643066]</t>
+  </si>
+  <si>
+    <t>[-0.28747978806495667]</t>
+  </si>
+  <si>
+    <t>[0.15074382722377777]</t>
+  </si>
+  <si>
+    <t>[0.38767245411872864]</t>
+  </si>
+  <si>
+    <t>[-0.0473826639354229]</t>
+  </si>
+  <si>
+    <t>[-0.09718139469623566]</t>
+  </si>
+  <si>
+    <t>[0.18410827219486237]</t>
+  </si>
+  <si>
+    <t>[0.008584561757743359]</t>
+  </si>
+  <si>
+    <t>[-0.3565007448196411]</t>
+  </si>
+  <si>
+    <t>[-0.004674479831010103]</t>
+  </si>
+  <si>
+    <t>[-0.17161566019058228]</t>
+  </si>
+  <si>
+    <t>[0.047212399542331696]</t>
+  </si>
+  <si>
+    <t>[0.2372974008321762]</t>
+  </si>
+  <si>
+    <t>[-0.2317911833524704]</t>
+  </si>
+  <si>
+    <t>[-0.17521758377552032]</t>
+  </si>
+  <si>
+    <t>[0.21470123529434204]</t>
+  </si>
+  <si>
+    <t>[0.27271103858947754]</t>
+  </si>
+  <si>
+    <t>[0.3300798535346985]</t>
+  </si>
+  <si>
+    <t>[0.46022525429725647]</t>
+  </si>
+  <si>
+    <t>[-0.3076106309890747]</t>
+  </si>
+  <si>
+    <t>[-0.3817514479160309]</t>
+  </si>
+  <si>
+    <t>[0.30484700202941895]</t>
+  </si>
+  <si>
+    <t>[0.05346310883760452]</t>
+  </si>
+  <si>
+    <t>[0.1985369324684143]</t>
+  </si>
+  <si>
+    <t>[0.2664582133293152]</t>
+  </si>
+  <si>
+    <t>[-0.41714972257614136]</t>
+  </si>
+  <si>
+    <t>[0.3114623725414276]</t>
+  </si>
+  <si>
+    <t>[-0.1629447638988495]</t>
+  </si>
+  <si>
+    <t>[-0.361823707818985]</t>
+  </si>
+  <si>
+    <t>[0.15960104763507843]</t>
+  </si>
+  <si>
+    <t>[-0.1571948379278183]</t>
+  </si>
+  <si>
+    <t>[0.2575725018978119]</t>
+  </si>
+  <si>
+    <t>[0.05623181536793709]</t>
+  </si>
+  <si>
+    <t>[-0.23108941316604614]</t>
+  </si>
+  <si>
+    <t>[0.10954518616199493]</t>
+  </si>
+  <si>
+    <t>[-0.4256899654865265]</t>
+  </si>
+  <si>
+    <t>[0.49466463923454285]</t>
+  </si>
+  <si>
+    <t>[-0.06967159360647202]</t>
+  </si>
+  <si>
+    <t>[0.3833308517932892]</t>
+  </si>
+  <si>
+    <t>[-0.08059147000312805]</t>
+  </si>
+  <si>
+    <t>[-0.3013072609901428]</t>
+  </si>
+  <si>
+    <t>[-0.3230237364768982]</t>
+  </si>
+  <si>
+    <t>[0.21620133519172668]</t>
+  </si>
+  <si>
+    <t>[0.06537653505802155]</t>
+  </si>
+  <si>
+    <t>[0.030131440609693527]</t>
+  </si>
+  <si>
+    <t>[-0.22221440076828003]</t>
+  </si>
+  <si>
+    <t>[0.04107799753546715]</t>
+  </si>
+  <si>
+    <t>[0.1689218282699585]</t>
+  </si>
+  <si>
+    <t>[0.05002368986606598]</t>
+  </si>
+  <si>
+    <t>[-0.1230827271938324]</t>
+  </si>
+  <si>
+    <t>[-0.3214958608150482]</t>
+  </si>
+  <si>
+    <t>[-0.052333083003759384]</t>
+  </si>
+  <si>
+    <t>[0.153108611702919]</t>
+  </si>
+  <si>
+    <t>[-0.46722424030303955]</t>
+  </si>
+  <si>
+    <t>[0.2680252492427826]</t>
+  </si>
+  <si>
+    <t>[-0.008176909759640694]</t>
+  </si>
+  <si>
+    <t>[-0.02169918268918991]</t>
+  </si>
+  <si>
+    <t>[0.1056566834449768]</t>
+  </si>
+  <si>
+    <t>[0.03814614564180374]</t>
+  </si>
+  <si>
+    <t>[-0.13569991290569305]</t>
+  </si>
+  <si>
+    <t>[-0.21850940585136414]</t>
+  </si>
+  <si>
+    <t>[-0.19168879091739655]</t>
+  </si>
+  <si>
+    <t>[-0.19499869644641876]</t>
+  </si>
+  <si>
+    <t>[0.061695195734500885]</t>
+  </si>
+  <si>
+    <t>[-0.3826497197151184]</t>
+  </si>
+  <si>
+    <t>[0.07083818316459656]</t>
+  </si>
+  <si>
+    <t>[-0.16685517132282257]</t>
+  </si>
+  <si>
+    <t>[-0.3262065052986145]</t>
+  </si>
+  <si>
+    <t>[0.4618544578552246]</t>
+  </si>
+  <si>
+    <t>[-0.42173609137535095]</t>
+  </si>
+  <si>
+    <t>[-0.1805073469877243]</t>
+  </si>
+  <si>
+    <t>[-0.2983337342739105]</t>
+  </si>
+  <si>
+    <t>[-0.12558454275131226]</t>
+  </si>
+  <si>
+    <t>[0.27351778745651245]</t>
+  </si>
+  <si>
+    <t>[-0.23608307540416718]</t>
+  </si>
+  <si>
+    <t>[0.3386108875274658]</t>
+  </si>
+  <si>
+    <t>[-0.02885875664651394]</t>
+  </si>
+  <si>
+    <t>[0.09875784069299698]</t>
+  </si>
+  <si>
+    <t>[-0.22961187362670898]</t>
+  </si>
+  <si>
+    <t>[-0.055560167878866196]</t>
+  </si>
+  <si>
+    <t>[0.09750231355428696]</t>
+  </si>
+  <si>
+    <t>[-0.12220418453216553]</t>
+  </si>
+  <si>
+    <t>[0.03555413335561752]</t>
+  </si>
+  <si>
+    <t>[-0.059565674513578415]</t>
+  </si>
+  <si>
+    <t>[0.2526250183582306]</t>
+  </si>
+  <si>
+    <t>[0.48368269205093384]</t>
+  </si>
+  <si>
+    <t>[-0.4161001741886139]</t>
+  </si>
+  <si>
+    <t>[-0.21722635626792908]</t>
+  </si>
+  <si>
+    <t>[0.35868942737579346]</t>
+  </si>
+  <si>
+    <t>[0.02347487024962902]</t>
+  </si>
+  <si>
+    <t>[-0.1542973518371582]</t>
+  </si>
+  <si>
+    <t>[0.02016504667699337]</t>
+  </si>
+  <si>
+    <t>[-0.05357397720217705]</t>
+  </si>
+  <si>
+    <t>[0.17468275129795074]</t>
+  </si>
+  <si>
+    <t>[-0.2764081656932831]</t>
+  </si>
+  <si>
+    <t>[-0.071053147315979]</t>
+  </si>
+  <si>
+    <t>[-0.18277734518051147]</t>
+  </si>
+  <si>
+    <t>[-0.17431825399398804]</t>
+  </si>
+  <si>
+    <t>[-0.20956219732761383]</t>
+  </si>
+  <si>
+    <t>[0.031069735065102577]</t>
+  </si>
+  <si>
+    <t>[0.1631205677986145]</t>
+  </si>
+  <si>
+    <t>[-0.27141088247299194]</t>
+  </si>
+  <si>
+    <t>[-0.15799470245838165]</t>
+  </si>
+  <si>
+    <t>[-0.35442137718200684]</t>
+  </si>
+  <si>
+    <t>[0.08132467418909073]</t>
+  </si>
+  <si>
+    <t>[0.3450663089752197]</t>
+  </si>
+  <si>
+    <t>[-0.051241982728242874]</t>
+  </si>
+  <si>
+    <t>[-0.18584832549095154]</t>
+  </si>
+  <si>
+    <t>[0.4723464250564575]</t>
+  </si>
+  <si>
+    <t>[0.16124051809310913]</t>
+  </si>
+  <si>
+    <t>[-0.18748775124549866]</t>
+  </si>
+  <si>
+    <t>[-0.2286851555109024]</t>
+  </si>
+  <si>
+    <t>[-0.2678946554660797]</t>
+  </si>
+  <si>
+    <t>[0.19620998203754425]</t>
+  </si>
+  <si>
+    <t>[-0.0767044797539711]</t>
+  </si>
+  <si>
+    <t>[0.5056121945381165]</t>
+  </si>
+  <si>
+    <t>[0.192914217710495]</t>
+  </si>
+  <si>
+    <t>[0.4321972131729126]</t>
+  </si>
+  <si>
+    <t>[0.06528779119253159]</t>
+  </si>
+  <si>
+    <t>[0.09032713621854782]</t>
+  </si>
+  <si>
+    <t>[0.16860331594944]</t>
+  </si>
+  <si>
+    <t>[-0.004843553993850946]</t>
+  </si>
+  <si>
+    <t>[0.008891534060239792]</t>
+  </si>
+  <si>
+    <t>[0.08542010933160782]</t>
+  </si>
+  <si>
+    <t>[-0.017419584095478058]</t>
+  </si>
+  <si>
+    <t>[-0.009405978955328465]</t>
+  </si>
+  <si>
+    <t>[-0.26229047775268555]</t>
+  </si>
+  <si>
+    <t>[-0.2783239185810089]</t>
+  </si>
+  <si>
+    <t>[0.23075540363788605]</t>
+  </si>
+  <si>
+    <t>[0.2750163674354553]</t>
+  </si>
+  <si>
+    <t>[-0.11579577624797821]</t>
+  </si>
+  <si>
+    <t>[-0.11276185512542725]</t>
+  </si>
+  <si>
+    <t>[-0.38318371772766113]</t>
+  </si>
+  <si>
+    <t>[0.21795102953910828]</t>
+  </si>
+  <si>
+    <t>[-0.11182262748479843]</t>
+  </si>
+  <si>
+    <t>[-0.2457902431488037]</t>
+  </si>
+  <si>
+    <t>[-0.13132302463054657]</t>
+  </si>
+  <si>
+    <t>[-0.4940471649169922]</t>
+  </si>
+  <si>
+    <t>[-0.007826496846973896]</t>
+  </si>
+  <si>
+    <t>[0.2329348921775818]</t>
+  </si>
+  <si>
+    <t>[0.33315470814704895]</t>
+  </si>
+  <si>
+    <t>[0.2865430414676666]</t>
+  </si>
+  <si>
+    <t>[0.4846590757369995]</t>
+  </si>
+  <si>
+    <t>[0.0972205325961113]</t>
+  </si>
+  <si>
+    <t>[-0.005628302227705717]</t>
+  </si>
+  <si>
+    <t>[-0.1824960857629776]</t>
+  </si>
+  <si>
+    <t>[-0.07784268260002136]</t>
+  </si>
+  <si>
+    <t>[0.16691803932189941]</t>
+  </si>
+  <si>
+    <t>[-0.24090728163719177]</t>
+  </si>
+  <si>
+    <t>[0.1832464635372162]</t>
+  </si>
+  <si>
+    <t>[0.06932428479194641]</t>
+  </si>
+  <si>
+    <t>[0.022473903372883797]</t>
+  </si>
+  <si>
+    <t>[-0.20165854692459106]</t>
+  </si>
+  <si>
+    <t>[-0.16202503442764282]</t>
+  </si>
+  <si>
+    <t>[0.14282923936843872]</t>
+  </si>
+  <si>
+    <t>[-0.41169846057891846]</t>
+  </si>
+  <si>
+    <t>[-0.09589538723230362]</t>
+  </si>
+  <si>
+    <t>[-0.10693708062171936]</t>
+  </si>
+  <si>
+    <t>[0.3476347327232361]</t>
+  </si>
+  <si>
+    <t>[-0.3498847484588623]</t>
+  </si>
+  <si>
+    <t>[0.03936522454023361]</t>
+  </si>
+  <si>
+    <t>[-0.2820213735103607]</t>
+  </si>
+  <si>
+    <t>[-0.13232503831386566]</t>
+  </si>
+  <si>
+    <t>[0.1150389090180397]</t>
+  </si>
+  <si>
+    <t>[0.1503993421792984]</t>
+  </si>
+  <si>
+    <t>[0.10192753374576569]</t>
+  </si>
+  <si>
+    <t>[0.06015095114707947]</t>
+  </si>
+  <si>
+    <t>[0.2880817949771881]</t>
+  </si>
+  <si>
+    <t>[-0.17675933241844177]</t>
+  </si>
+  <si>
+    <t>[0.09032926708459854]</t>
+  </si>
+  <si>
+    <t>[0.08133752644062042]</t>
+  </si>
+  <si>
+    <t>[-0.07213028520345688]</t>
+  </si>
+  <si>
+    <t>[0.2720431387424469]</t>
+  </si>
+  <si>
+    <t>[0.08007678389549255]</t>
+  </si>
+  <si>
+    <t>[0.3773503601551056]</t>
+  </si>
+  <si>
+    <t>[0.22677263617515564]</t>
+  </si>
+  <si>
+    <t>[-0.027026379480957985]</t>
+  </si>
+  <si>
+    <t>[0.12768016755580902]</t>
+  </si>
+  <si>
+    <t>[0.3806115686893463]</t>
+  </si>
+  <si>
+    <t>[-0.11140137165784836]</t>
+  </si>
+  <si>
+    <t>[-0.10326071828603745]</t>
+  </si>
+  <si>
+    <t>[-0.16988959908485413]</t>
+  </si>
+  <si>
+    <t>[-0.35227957367897034]</t>
+  </si>
+  <si>
+    <t>[-0.030343981459736824]</t>
+  </si>
+  <si>
+    <t>[0.04304450377821922]</t>
+  </si>
+  <si>
+    <t>[-0.08832331001758575]</t>
+  </si>
+  <si>
+    <t>[-0.04786708578467369]</t>
+  </si>
+  <si>
+    <t>[-0.020601831376552582]</t>
+  </si>
+  <si>
+    <t>[0.06949581950902939]</t>
+  </si>
+  <si>
+    <t>[0.1298147290945053]</t>
+  </si>
+  <si>
+    <t>[-0.21083013713359833]</t>
+  </si>
+  <si>
+    <t>[-0.27463197708129883]</t>
+  </si>
+  <si>
+    <t>[0.3765151798725128]</t>
+  </si>
+  <si>
+    <t>[0.09965018928050995]</t>
+  </si>
+  <si>
+    <t>[0.18285557627677917]</t>
+  </si>
+  <si>
+    <t>[-0.03317704051733017]</t>
+  </si>
+  <si>
+    <t>[0.05583375692367554]</t>
+  </si>
+  <si>
+    <t>[0.06869885325431824]</t>
+  </si>
+  <si>
+    <t>[0.023214111104607582]</t>
+  </si>
+  <si>
+    <t>[0.0006502112955786288]</t>
+  </si>
+  <si>
+    <t>[-0.3176345229148865]</t>
+  </si>
+  <si>
+    <t>[-0.2180757075548172]</t>
+  </si>
+  <si>
+    <t>[0.2012154906988144]</t>
+  </si>
+  <si>
+    <t>[0.21410052478313446]</t>
+  </si>
+  <si>
+    <t>[-0.22269758582115173]</t>
+  </si>
+  <si>
+    <t>[0.2845020890235901]</t>
+  </si>
+  <si>
+    <t>[0.23227782547473907]</t>
+  </si>
+  <si>
+    <t>[0.24487082660198212]</t>
+  </si>
+  <si>
+    <t>[-0.14377887547016144]</t>
+  </si>
+  <si>
+    <t>[0.2853515148162842]</t>
+  </si>
+  <si>
+    <t>[-0.34511038661003113]</t>
+  </si>
+  <si>
+    <t>[-0.14723435044288635]</t>
+  </si>
+  <si>
+    <t>[-0.06496594846248627]</t>
+  </si>
+  <si>
+    <t>[-0.059596285223960876]</t>
+  </si>
+  <si>
+    <t>[-0.06288745254278183]</t>
+  </si>
+  <si>
+    <t>[0.20582953095436096]</t>
+  </si>
+  <si>
+    <t>[-0.2132054567337036]</t>
+  </si>
+  <si>
+    <t>[-0.35696983337402344]</t>
+  </si>
+  <si>
+    <t>[-0.17107373476028442]</t>
+  </si>
+  <si>
+    <t>[-0.04482630640268326]</t>
+  </si>
+  <si>
+    <t>[0.033248670399188995]</t>
+  </si>
+  <si>
+    <t>[-0.12800194323062897]</t>
+  </si>
+  <si>
+    <t>[-0.14077633619308472]</t>
+  </si>
+  <si>
+    <t>[-0.11867258697748184]</t>
+  </si>
+  <si>
+    <t>[-0.2730734348297119]</t>
+  </si>
+  <si>
+    <t>[0.050760772079229355]</t>
+  </si>
+  <si>
+    <t>[-0.3698420822620392]</t>
+  </si>
+  <si>
+    <t>[-0.16153168678283691]</t>
+  </si>
+  <si>
+    <t>[-0.018920086324214935]</t>
+  </si>
+  <si>
+    <t>[-0.1966947317123413]</t>
+  </si>
+  <si>
+    <t>[-0.44213730096817017]</t>
+  </si>
+  <si>
+    <t>[-0.19118601083755493]</t>
+  </si>
+  <si>
+    <t>[0.20004859566688538]</t>
+  </si>
+  <si>
+    <t>[0.5654081702232361]</t>
+  </si>
+  <si>
+    <t>[-0.08184099197387695]</t>
+  </si>
+  <si>
+    <t>[0.28050312399864197]</t>
+  </si>
+  <si>
+    <t>[0.2514216899871826]</t>
+  </si>
+  <si>
+    <t>[0.38986900448799133]</t>
+  </si>
+  <si>
+    <t>[-0.08621378988027573]</t>
+  </si>
+  <si>
+    <t>[0.29897695779800415]</t>
+  </si>
+  <si>
+    <t>[0.03186151757836342]</t>
+  </si>
+  <si>
+    <t>[0.06967948377132416]</t>
+  </si>
+  <si>
+    <t>[-0.05114174261689186]</t>
+  </si>
+  <si>
+    <t>[-0.018631462007761]</t>
+  </si>
+  <si>
+    <t>[-0.10915704816579819]</t>
+  </si>
+  <si>
+    <t>[-0.027128838002681732]</t>
+  </si>
+  <si>
+    <t>[-0.12946759164333344]</t>
+  </si>
+  <si>
+    <t>[-0.08835338801145554]</t>
+  </si>
+  <si>
+    <t>[0.2169247716665268]</t>
+  </si>
+  <si>
+    <t>[0.29581019282341003]</t>
+  </si>
+  <si>
+    <t>[-0.05079755187034607]</t>
+  </si>
+  <si>
+    <t>[0.14796651899814606]</t>
+  </si>
+  <si>
+    <t>[-0.36151862144470215]</t>
+  </si>
+  <si>
+    <t>[0.5516086220741272]</t>
+  </si>
+  <si>
+    <t>[-0.30683431029319763]</t>
+  </si>
+  <si>
+    <t>[-0.12135208398103714]</t>
+  </si>
+  <si>
+    <t>[-0.4143734276294708]</t>
+  </si>
+  <si>
+    <t>[-0.07595381140708923]</t>
+  </si>
+  <si>
+    <t>[-0.18448227643966675]</t>
+  </si>
+  <si>
+    <t>[0.1731402724981308]</t>
+  </si>
+  <si>
+    <t>[0.025993255898356438]</t>
+  </si>
+  <si>
+    <t>[0.21962594985961914]</t>
+  </si>
+  <si>
+    <t>[0.17613773047924042]</t>
+  </si>
+  <si>
+    <t>[0.004234973806887865]</t>
+  </si>
+  <si>
+    <t>[-0.21067138016223907]</t>
+  </si>
+  <si>
+    <t>[-0.014132038690149784]</t>
+  </si>
+  <si>
+    <t>[0.3113275170326233]</t>
+  </si>
+  <si>
+    <t>[0.27587464451789856]</t>
+  </si>
+  <si>
+    <t>[-0.07054082304239273]</t>
+  </si>
+  <si>
+    <t>[0.23747912049293518]</t>
+  </si>
+  <si>
+    <t>[0.28853434324264526]</t>
+  </si>
+  <si>
+    <t>[-0.0553651861846447]</t>
+  </si>
+  <si>
+    <t>[-0.14721715450286865]</t>
+  </si>
+  <si>
+    <t>[-0.3185247480869293]</t>
+  </si>
+  <si>
+    <t>[0.09080445021390915]</t>
+  </si>
+  <si>
+    <t>[-0.3723543584346771]</t>
+  </si>
+  <si>
+    <t>[0.09174557775259018]</t>
+  </si>
+  <si>
+    <t>[-0.15493923425674438]</t>
+  </si>
+  <si>
+    <t>[0.29506486654281616]</t>
+  </si>
+  <si>
+    <t>[-0.10812945663928986]</t>
+  </si>
+  <si>
+    <t>[-0.20752790570259094]</t>
+  </si>
+  <si>
+    <t>[-0.10902228206396103]</t>
+  </si>
+  <si>
+    <t>[-0.2683221995830536]</t>
+  </si>
+  <si>
+    <t>[0.054135922342538834]</t>
+  </si>
+  <si>
+    <t>[0.26500725746154785]</t>
+  </si>
+  <si>
+    <t>[-0.2810474634170532]</t>
+  </si>
+  <si>
+    <t>[0.3105396628379822]</t>
+  </si>
+  <si>
+    <t>[0.15537503361701965]</t>
+  </si>
+  <si>
+    <t>[-0.16079984605312347]</t>
+  </si>
+  <si>
+    <t>[-0.10358264297246933]</t>
+  </si>
+  <si>
+    <t>[0.42822086811065674]</t>
+  </si>
+  <si>
+    <t>[0.4730701744556427]</t>
+  </si>
+  <si>
+    <t>[0.22429215908050537]</t>
+  </si>
+  <si>
+    <t>[-0.5433629155158997]</t>
+  </si>
+  <si>
+    <t>[0.06560001522302628]</t>
+  </si>
+  <si>
+    <t>[0.17295141518115997]</t>
+  </si>
+  <si>
+    <t>[-0.11488150805234909]</t>
+  </si>
+  <si>
+    <t>[0.22584854066371918]</t>
+  </si>
+  <si>
+    <t>[0.08690260350704193]</t>
+  </si>
+  <si>
+    <t>[-0.22870439291000366]</t>
+  </si>
+  <si>
+    <t>[-0.24560664594173431]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -559,76 +1375,124 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[-0.24072809517383575]</t>
-  </si>
-  <si>
-    <t>[1.1097429990768433]</t>
-  </si>
-  <si>
-    <t>[0.2436203807592392]</t>
-  </si>
-  <si>
-    <t>[-0.24184928834438324]</t>
-  </si>
-  <si>
-    <t>[0.37913212180137634]</t>
-  </si>
-  <si>
-    <t>[1.1738287210464478]</t>
-  </si>
-  <si>
-    <t>[-0.10060413181781769]</t>
-  </si>
-  <si>
-    <t>[0.18808411061763763]</t>
-  </si>
-  <si>
-    <t>[0.2185378074645996]</t>
-  </si>
-  <si>
-    <t>[1.175652265548706]</t>
-  </si>
-  <si>
-    <t>[0.27510082721710205]</t>
-  </si>
-  <si>
-    <t>[0.07691540569067001]</t>
-  </si>
-  <si>
-    <t>[0.28758445382118225]</t>
-  </si>
-  <si>
-    <t>[1.2648282051086426]</t>
-  </si>
-  <si>
-    <t>[0.2945251166820526]</t>
-  </si>
-  <si>
-    <t>[-0.09085347503423691]</t>
-  </si>
-  <si>
-    <t>[-0.3047533631324768]</t>
-  </si>
-  <si>
-    <t>[1.2820227146148682]</t>
-  </si>
-  <si>
-    <t>[0.3040141463279724]</t>
-  </si>
-  <si>
-    <t>[0.07458995282649994]</t>
-  </si>
-  <si>
-    <t>[-0.3018355965614319]</t>
-  </si>
-  <si>
-    <t>[1.118687629699707]</t>
-  </si>
-  <si>
-    <t>[-0.16816718876361847]</t>
-  </si>
-  <si>
-    <t>[0.11032551527023315]</t>
+    <t>[0.23588867485523224]</t>
+  </si>
+  <si>
+    <t>[1.2368484735488892]</t>
+  </si>
+  <si>
+    <t>[0.24474769830703735]</t>
+  </si>
+  <si>
+    <t>[0.20651790499687195]</t>
+  </si>
+  <si>
+    <t>[-0.19343841075897217]</t>
+  </si>
+  <si>
+    <t>[1.1919344663619995]</t>
+  </si>
+  <si>
+    <t>[0.20078161358833313]</t>
+  </si>
+  <si>
+    <t>[-0.21302878856658936]</t>
+  </si>
+  <si>
+    <t>[0.27897003293037415]</t>
+  </si>
+  <si>
+    <t>[1.2573652267456055]</t>
+  </si>
+  <si>
+    <t>[0.28772932291030884]</t>
+  </si>
+  <si>
+    <t>[0.17382273077964783]</t>
+  </si>
+  <si>
+    <t>[-0.24045200645923615]</t>
+  </si>
+  <si>
+    <t>[1.2265492677688599]</t>
+  </si>
+  <si>
+    <t>[-0.2504154443740845]</t>
+  </si>
+  <si>
+    <t>[0.15016992390155792]</t>
+  </si>
+  <si>
+    <t>[-0.26104846596717834]</t>
+  </si>
+  <si>
+    <t>[1.236703872680664]</t>
+  </si>
+  <si>
+    <t>[-0.25125372409820557]</t>
+  </si>
+  <si>
+    <t>[-0.20770582556724548]</t>
+  </si>
+  <si>
+    <t>[-0.17004024982452393]</t>
+  </si>
+  <si>
+    <t>[1.1472817659378052]</t>
+  </si>
+  <si>
+    <t>[0.15060636401176453]</t>
+  </si>
+  <si>
+    <t>[0.24025283753871918]</t>
+  </si>
+  <si>
+    <t>[-0.2509661614894867]</t>
+  </si>
+  <si>
+    <t>[1.2256031036376953]</t>
+  </si>
+  <si>
+    <t>[0.24372270703315735]</t>
+  </si>
+  <si>
+    <t>[-0.18848374485969543]</t>
+  </si>
+  <si>
+    <t>[-0.17212818562984467]</t>
+  </si>
+  <si>
+    <t>[1.0865631103515625]</t>
+  </si>
+  <si>
+    <t>[0.18101562559604645]</t>
+  </si>
+  <si>
+    <t>[0.16713595390319824]</t>
+  </si>
+  <si>
+    <t>[-0.2507917284965515]</t>
+  </si>
+  <si>
+    <t>[1.228848934173584]</t>
+  </si>
+  <si>
+    <t>[0.24927203357219696]</t>
+  </si>
+  <si>
+    <t>[0.19822807610034943]</t>
+  </si>
+  <si>
+    <t>[0.248830184340477]</t>
+  </si>
+  <si>
+    <t>[1.2262110710144043]</t>
+  </si>
+  <si>
+    <t>[-0.2468869984149933]</t>
+  </si>
+  <si>
+    <t>[-0.20118571817874908]</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,6 +1963,74 @@
       </c>
       <c r="E7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,16 +2054,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1139,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1156,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1173,16 +2105,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1190,16 +2122,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1207,16 +2139,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1224,16 +2156,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1241,16 +2173,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1258,16 +2190,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1275,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1292,16 +2224,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1309,16 +2241,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1326,16 +2258,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1343,16 +2275,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1360,16 +2292,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1377,16 +2309,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1394,16 +2326,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1411,16 +2343,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1428,16 +2360,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1445,16 +2377,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1462,16 +2394,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1479,16 +2411,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1496,16 +2428,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1513,16 +2445,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1530,16 +2462,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1547,16 +2479,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1564,16 +2496,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1581,16 +2513,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1598,16 +2530,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1615,16 +2547,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1632,16 +2564,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1649,16 +2581,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1666,16 +2598,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1683,16 +2615,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1700,16 +2632,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1717,16 +2649,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1734,16 +2666,1104 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" t="s">
+        <v>262</v>
+      </c>
+      <c r="E55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" t="s">
+        <v>274</v>
+      </c>
+      <c r="E58" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C60" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" t="s">
+        <v>282</v>
+      </c>
+      <c r="E60" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>288</v>
+      </c>
+      <c r="C62" t="s">
+        <v>289</v>
+      </c>
+      <c r="D62" t="s">
+        <v>290</v>
+      </c>
+      <c r="E62" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" t="s">
+        <v>293</v>
+      </c>
+      <c r="D63" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" t="s">
+        <v>297</v>
+      </c>
+      <c r="D64" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" t="s">
+        <v>302</v>
+      </c>
+      <c r="E65" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" t="s">
+        <v>306</v>
+      </c>
+      <c r="E66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" t="s">
+        <v>314</v>
+      </c>
+      <c r="E68" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>316</v>
+      </c>
+      <c r="C69" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>320</v>
+      </c>
+      <c r="C70" t="s">
+        <v>321</v>
+      </c>
+      <c r="D70" t="s">
+        <v>322</v>
+      </c>
+      <c r="E70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>324</v>
+      </c>
+      <c r="C71" t="s">
+        <v>325</v>
+      </c>
+      <c r="D71" t="s">
+        <v>326</v>
+      </c>
+      <c r="E71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>328</v>
+      </c>
+      <c r="C72" t="s">
+        <v>329</v>
+      </c>
+      <c r="D72" t="s">
+        <v>330</v>
+      </c>
+      <c r="E72" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>332</v>
+      </c>
+      <c r="C73" t="s">
+        <v>333</v>
+      </c>
+      <c r="D73" t="s">
+        <v>334</v>
+      </c>
+      <c r="E73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>336</v>
+      </c>
+      <c r="C74" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" t="s">
+        <v>338</v>
+      </c>
+      <c r="E74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" t="s">
+        <v>342</v>
+      </c>
+      <c r="E75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>344</v>
+      </c>
+      <c r="C76" t="s">
+        <v>345</v>
+      </c>
+      <c r="D76" t="s">
+        <v>346</v>
+      </c>
+      <c r="E76" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" t="s">
+        <v>350</v>
+      </c>
+      <c r="E77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>352</v>
+      </c>
+      <c r="C78" t="s">
+        <v>353</v>
+      </c>
+      <c r="D78" t="s">
+        <v>354</v>
+      </c>
+      <c r="E78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>356</v>
+      </c>
+      <c r="C79" t="s">
+        <v>357</v>
+      </c>
+      <c r="D79" t="s">
+        <v>358</v>
+      </c>
+      <c r="E79" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" t="s">
+        <v>361</v>
+      </c>
+      <c r="D80" t="s">
+        <v>362</v>
+      </c>
+      <c r="E80" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>364</v>
+      </c>
+      <c r="C81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D81" t="s">
+        <v>366</v>
+      </c>
+      <c r="E81" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>368</v>
+      </c>
+      <c r="C82" t="s">
+        <v>369</v>
+      </c>
+      <c r="D82" t="s">
+        <v>370</v>
+      </c>
+      <c r="E82" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>372</v>
+      </c>
+      <c r="C83" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" t="s">
+        <v>377</v>
+      </c>
+      <c r="D84" t="s">
+        <v>378</v>
+      </c>
+      <c r="E84" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" t="s">
+        <v>381</v>
+      </c>
+      <c r="D85" t="s">
+        <v>382</v>
+      </c>
+      <c r="E85" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" t="s">
+        <v>385</v>
+      </c>
+      <c r="D86" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>388</v>
+      </c>
+      <c r="C87" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" t="s">
+        <v>390</v>
+      </c>
+      <c r="E87" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>392</v>
+      </c>
+      <c r="C88" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" t="s">
+        <v>394</v>
+      </c>
+      <c r="E88" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" t="s">
+        <v>397</v>
+      </c>
+      <c r="D89" t="s">
+        <v>398</v>
+      </c>
+      <c r="E89" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>400</v>
+      </c>
+      <c r="C90" t="s">
+        <v>401</v>
+      </c>
+      <c r="D90" t="s">
+        <v>402</v>
+      </c>
+      <c r="E90" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>404</v>
+      </c>
+      <c r="C91" t="s">
+        <v>405</v>
+      </c>
+      <c r="D91" t="s">
+        <v>406</v>
+      </c>
+      <c r="E91" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>408</v>
+      </c>
+      <c r="C92" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" t="s">
+        <v>410</v>
+      </c>
+      <c r="E92" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>412</v>
+      </c>
+      <c r="C93" t="s">
+        <v>413</v>
+      </c>
+      <c r="D93" t="s">
+        <v>414</v>
+      </c>
+      <c r="E93" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>416</v>
+      </c>
+      <c r="C94" t="s">
+        <v>417</v>
+      </c>
+      <c r="D94" t="s">
+        <v>418</v>
+      </c>
+      <c r="E94" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>420</v>
+      </c>
+      <c r="C95" t="s">
+        <v>421</v>
+      </c>
+      <c r="D95" t="s">
+        <v>422</v>
+      </c>
+      <c r="E95" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>424</v>
+      </c>
+      <c r="C96" t="s">
+        <v>425</v>
+      </c>
+      <c r="D96" t="s">
+        <v>426</v>
+      </c>
+      <c r="E96" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>428</v>
+      </c>
+      <c r="C97" t="s">
+        <v>429</v>
+      </c>
+      <c r="D97" t="s">
+        <v>430</v>
+      </c>
+      <c r="E97" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>432</v>
+      </c>
+      <c r="C98" t="s">
+        <v>433</v>
+      </c>
+      <c r="D98" t="s">
+        <v>434</v>
+      </c>
+      <c r="E98" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>436</v>
+      </c>
+      <c r="C99" t="s">
+        <v>437</v>
+      </c>
+      <c r="D99" t="s">
+        <v>438</v>
+      </c>
+      <c r="E99" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>440</v>
+      </c>
+      <c r="C100" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" t="s">
+        <v>442</v>
+      </c>
+      <c r="E100" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>444</v>
+      </c>
+      <c r="C101" t="s">
+        <v>445</v>
+      </c>
+      <c r="D101" t="s">
+        <v>446</v>
+      </c>
+      <c r="E101" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +3777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1767,16 +3787,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>448</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>449</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>450</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1784,16 +3804,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>452</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>453</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>454</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1801,16 +3821,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>457</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>458</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1818,16 +3838,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>461</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>462</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1835,16 +3855,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>466</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1852,16 +3872,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>468</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>469</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>470</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1869,16 +3889,84 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>472</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>473</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>474</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" t="s">
+        <v>489</v>
+      </c>
+      <c r="D11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E11" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
